--- a/Lab1/first_task.xlsx
+++ b/Lab1/first_task.xlsx
@@ -432,7 +432,7 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -483,7 +483,7 @@
         <v>6</v>
       </c>
       <c r="F3">
-        <f t="shared" ref="F3:F6" si="0">B3*$B$7+C3*$C$7+D3*$D$7</f>
+        <f t="shared" ref="F3:F5" si="0">B3*$B$7+C3*$C$7+D3*$D$7</f>
         <v>120.00000000000001</v>
       </c>
     </row>
